--- a/xlsx/德国_intext.xlsx
+++ b/xlsx/德国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2977">
   <si>
     <t>德国</t>
   </si>
@@ -23,15 +23,27 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
+  </si>
+  <si>
+    <t>兩德統一</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_奥林匹克运动会_德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>西德</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9B%BD%E6%97%97</t>
   </si>
   <si>
     <t>德国国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_德国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
   </si>
   <si>
@@ -224,12 +236,6 @@
     <t>歐洲經濟共同體</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
-  </si>
-  <si>
-    <t>兩德統一</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
@@ -584,12 +590,6 @@
     <t>東德</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>西德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B5%B1%E4%B8%80%E6%97%A5</t>
   </si>
   <si>
@@ -7514,10 +7514,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
@@ -7568,10 +7592,16 @@
     <t>列支敦斯登</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -7610,10 +7640,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -7700,18 +7730,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -7736,10 +7766,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -7790,16 +7820,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -7808,10 +7844,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -8844,12 +8880,6 @@
   </si>
   <si>
     <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
@@ -9264,7 +9294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1587"/>
+  <dimension ref="A1:I1592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9318,7 +9348,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -9347,7 +9377,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -9376,7 +9406,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -9405,7 +9435,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -9434,7 +9464,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -9463,7 +9493,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -9492,7 +9522,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -9521,7 +9551,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -9550,7 +9580,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -9579,7 +9609,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -9608,7 +9638,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -9637,7 +9667,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -9695,7 +9725,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -9724,7 +9754,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -9753,7 +9783,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -9782,7 +9812,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -9956,7 +9986,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -10014,7 +10044,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -10043,7 +10073,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -10072,7 +10102,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -10101,7 +10131,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -10130,7 +10160,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -10159,7 +10189,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -10188,7 +10218,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -10217,7 +10247,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -10246,7 +10276,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -10275,7 +10305,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -10304,7 +10334,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -10333,7 +10363,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -10362,7 +10392,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -10391,7 +10421,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -10449,7 +10479,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -10478,7 +10508,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -10507,7 +10537,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -10536,7 +10566,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -10565,7 +10595,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -10623,7 +10653,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -10681,7 +10711,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -10710,7 +10740,7 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -10768,7 +10798,7 @@
         <v>104</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -10797,7 +10827,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -10942,7 +10972,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -10971,7 +11001,7 @@
         <v>118</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -11000,7 +11030,7 @@
         <v>120</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -11029,7 +11059,7 @@
         <v>122</v>
       </c>
       <c r="G61" t="n">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -11058,7 +11088,7 @@
         <v>124</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -11087,7 +11117,7 @@
         <v>126</v>
       </c>
       <c r="G63" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -11116,7 +11146,7 @@
         <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -11145,7 +11175,7 @@
         <v>130</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -11174,7 +11204,7 @@
         <v>132</v>
       </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -11203,7 +11233,7 @@
         <v>134</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -11232,7 +11262,7 @@
         <v>136</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -11290,7 +11320,7 @@
         <v>140</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -11319,7 +11349,7 @@
         <v>142</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -11348,7 +11378,7 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -11377,7 +11407,7 @@
         <v>146</v>
       </c>
       <c r="G73" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -11406,7 +11436,7 @@
         <v>148</v>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -11435,7 +11465,7 @@
         <v>150</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -11493,7 +11523,7 @@
         <v>154</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -11522,7 +11552,7 @@
         <v>156</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -11551,7 +11581,7 @@
         <v>158</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -11580,7 +11610,7 @@
         <v>160</v>
       </c>
       <c r="G80" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -11609,7 +11639,7 @@
         <v>162</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -11638,7 +11668,7 @@
         <v>164</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -11696,7 +11726,7 @@
         <v>168</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -11725,7 +11755,7 @@
         <v>170</v>
       </c>
       <c r="G85" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -11754,7 +11784,7 @@
         <v>172</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -11783,7 +11813,7 @@
         <v>174</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -11893,10 +11923,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -11922,13 +11952,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -11957,7 +11987,7 @@
         <v>184</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -12015,7 +12045,7 @@
         <v>188</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -12044,7 +12074,7 @@
         <v>190</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -12067,13 +12097,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -12096,13 +12126,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -12125,13 +12155,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -12154,13 +12184,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -12183,13 +12213,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -12212,10 +12242,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -12241,10 +12271,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -12270,10 +12300,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -12299,13 +12329,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -12328,13 +12358,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -12357,13 +12387,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -12386,10 +12416,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -12415,10 +12445,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -12444,10 +12474,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -12473,10 +12503,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -12502,10 +12532,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -12531,13 +12561,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -12560,13 +12590,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -12589,13 +12619,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -12618,13 +12648,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -12647,13 +12677,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -12676,13 +12706,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -12705,13 +12735,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -12734,10 +12764,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -12763,10 +12793,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -12792,13 +12822,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -12821,13 +12851,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -12850,13 +12880,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -12879,13 +12909,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -12908,13 +12938,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -12937,13 +12967,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -12966,13 +12996,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -12995,13 +13025,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -13024,13 +13054,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="G130" t="n">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -13053,13 +13083,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -13082,13 +13112,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -13111,13 +13141,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -13140,13 +13170,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -13169,10 +13199,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -13198,10 +13228,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -13227,10 +13257,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -13256,13 +13286,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -13285,13 +13315,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -13314,13 +13344,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -13343,10 +13373,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -13372,13 +13402,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -13401,13 +13431,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -13430,10 +13460,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -13459,10 +13489,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -13488,10 +13518,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -13517,13 +13547,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -13546,13 +13576,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -13575,10 +13605,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -13604,10 +13634,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -13633,10 +13663,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -13662,10 +13692,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -13691,10 +13721,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -13720,13 +13750,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -13749,13 +13779,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -13778,10 +13808,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -13807,13 +13837,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -13836,13 +13866,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -13865,13 +13895,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -13894,10 +13924,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -13923,13 +13953,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F161" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G161" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -13952,13 +13982,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -13981,10 +14011,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -14010,10 +14040,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -14039,10 +14069,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -14068,10 +14098,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -14097,10 +14127,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -14126,10 +14156,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -14155,13 +14185,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -14184,13 +14214,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -14213,13 +14243,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -14242,13 +14272,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -14271,13 +14301,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="G173" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -14300,13 +14330,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -14329,10 +14359,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -14358,10 +14388,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -14387,10 +14417,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -14416,10 +14446,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -14445,10 +14475,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -14474,10 +14504,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -14503,10 +14533,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -14532,13 +14562,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>165</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="G182" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -14561,13 +14591,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -14590,13 +14620,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -14619,13 +14649,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -14648,13 +14678,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -14677,10 +14707,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -14706,10 +14736,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -14735,10 +14765,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -14764,10 +14794,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -14793,10 +14823,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -14822,10 +14852,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -14851,10 +14881,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -14880,10 +14910,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -14909,10 +14939,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -14938,13 +14968,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -14967,13 +14997,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -14996,13 +15026,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -15025,10 +15055,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -15054,13 +15084,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -15083,13 +15113,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -15112,10 +15142,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -15141,13 +15171,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -15170,13 +15200,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -15199,10 +15229,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -15228,10 +15258,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -15257,10 +15287,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -15286,10 +15316,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>53</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -15315,13 +15345,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>57</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>58</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -15344,13 +15374,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -15373,10 +15403,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -15402,10 +15432,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -15431,10 +15461,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -15460,10 +15490,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -15489,10 +15519,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -15518,10 +15548,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -15547,13 +15577,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -15576,13 +15606,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -15605,10 +15635,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -15634,10 +15664,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -15663,13 +15693,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -15692,13 +15722,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -15721,10 +15751,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -15750,10 +15780,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -15779,13 +15809,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -15808,10 +15838,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -15837,13 +15867,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -15866,10 +15896,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -15895,13 +15925,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -15924,10 +15954,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -15953,13 +15983,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -15982,10 +16012,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -16011,10 +16041,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -16040,10 +16070,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -16069,13 +16099,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -16098,13 +16128,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -16127,10 +16157,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -16156,10 +16186,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -16185,10 +16215,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -16214,13 +16244,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -16243,10 +16273,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -16272,13 +16302,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -16301,10 +16331,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -16330,10 +16360,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -16359,10 +16389,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -16388,10 +16418,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -16417,10 +16447,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -16446,10 +16476,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -16475,13 +16505,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -16504,13 +16534,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -16533,10 +16563,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -16562,10 +16592,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -16591,10 +16621,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -16620,10 +16650,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -16649,10 +16679,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -16678,10 +16708,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -16707,13 +16737,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -16736,13 +16766,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -16765,10 +16795,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -16794,10 +16824,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -16823,10 +16853,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -16852,13 +16882,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -16881,13 +16911,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -16910,10 +16940,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -16939,10 +16969,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -16968,13 +16998,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -16997,13 +17027,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -17026,13 +17056,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -17055,13 +17085,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -17084,13 +17114,13 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -17113,13 +17143,13 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -17142,13 +17172,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -17171,13 +17201,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -17200,10 +17230,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -17229,13 +17259,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -17258,10 +17288,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -17287,13 +17317,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -17316,13 +17346,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -17345,13 +17375,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -17374,13 +17404,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -17403,10 +17433,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>171</v>
+        <v>535</v>
       </c>
       <c r="F281" t="s">
-        <v>172</v>
+        <v>536</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -17432,13 +17462,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>173</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>174</v>
       </c>
       <c r="G282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -17461,13 +17491,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -17490,13 +17520,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -17519,13 +17549,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -17548,13 +17578,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -17577,13 +17607,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -17606,10 +17636,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -17635,10 +17665,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -17664,13 +17694,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -17693,10 +17723,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -17722,13 +17752,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -17751,10 +17781,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -17809,10 +17839,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -17838,10 +17868,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -17867,10 +17897,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -17896,10 +17926,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -17925,10 +17955,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -17954,10 +17984,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -17983,10 +18013,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -18012,13 +18042,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -18041,10 +18071,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -18070,10 +18100,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>175</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>176</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -18099,13 +18129,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>177</v>
       </c>
       <c r="F305" t="s">
-        <v>580</v>
+        <v>178</v>
       </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -18128,13 +18158,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -18157,13 +18187,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -18186,13 +18216,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -18215,13 +18245,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>25</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>26</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -18244,13 +18274,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>29</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>30</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -18273,10 +18303,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -18302,10 +18332,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -18331,10 +18361,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -18360,10 +18390,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -18389,10 +18419,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -18418,10 +18448,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -18447,10 +18477,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -18476,10 +18506,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -18505,10 +18535,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -18534,10 +18564,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -18563,10 +18593,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -18592,10 +18622,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -18621,10 +18651,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -18650,10 +18680,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -18679,10 +18709,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -18708,10 +18738,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -18737,10 +18767,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -18766,10 +18796,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -18795,10 +18825,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -18824,10 +18854,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -18853,10 +18883,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -18882,10 +18912,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -18911,10 +18941,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -18940,10 +18970,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -18969,10 +18999,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -18998,10 +19028,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -19027,10 +19057,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -19056,10 +19086,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -19085,10 +19115,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -19114,13 +19144,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -19143,13 +19173,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -19172,10 +19202,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -19201,13 +19231,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -19230,13 +19260,13 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -19259,10 +19289,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F345" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -19288,13 +19318,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F346" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G346" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -19317,13 +19347,13 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -19346,13 +19376,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -19375,13 +19405,13 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -19404,10 +19434,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>6</v>
@@ -19433,13 +19463,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -19462,13 +19492,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -19491,13 +19521,13 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -19520,13 +19550,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -19549,13 +19579,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -19578,13 +19608,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -19607,10 +19637,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -19636,10 +19666,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -19665,10 +19695,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -19694,10 +19724,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -19723,10 +19753,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -19752,10 +19782,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -19781,10 +19811,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -19810,10 +19840,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -19839,10 +19869,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -19868,10 +19898,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -19897,13 +19927,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="F367" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="G367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -19926,13 +19956,13 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>701</v>
+        <v>625</v>
       </c>
       <c r="F368" t="s">
-        <v>702</v>
+        <v>626</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -19955,13 +19985,13 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F369" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -19984,10 +20014,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F370" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -20013,13 +20043,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F371" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -20042,10 +20072,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F372" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -20071,10 +20101,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F373" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -20100,10 +20130,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F374" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -20129,10 +20159,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F375" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -20158,10 +20188,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F376" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -20187,10 +20217,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F377" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -20216,13 +20246,13 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>189</v>
+        <v>719</v>
       </c>
       <c r="F378" t="s">
-        <v>190</v>
+        <v>720</v>
       </c>
       <c r="G378" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -20245,10 +20275,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F379" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G379" t="n">
         <v>8</v>
@@ -21956,10 +21986,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F438" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -23638,10 +23668,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F496" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -23986,10 +24016,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F508" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G508" t="n">
         <v>28</v>
@@ -24508,10 +24538,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F526" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -24566,10 +24596,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F528" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G528" t="n">
         <v>2</v>
@@ -24653,10 +24683,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F531" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G531" t="n">
         <v>4</v>
@@ -24885,10 +24915,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F539" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G539" t="n">
         <v>4</v>
@@ -25349,10 +25379,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F555" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G555" t="n">
         <v>3</v>
@@ -27437,10 +27467,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F627" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -27466,10 +27496,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F628" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -32106,10 +32136,10 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F788" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G788" t="n">
         <v>1</v>
@@ -32170,7 +32200,7 @@
         <v>1498</v>
       </c>
       <c r="G790" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -32193,10 +32223,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F791" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G791" t="n">
         <v>1</v>
@@ -32222,10 +32252,10 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F792" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G792" t="n">
         <v>2</v>
@@ -44721,10 +44751,10 @@
         <v>1222</v>
       </c>
       <c r="E1223" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1223" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1223" t="n">
         <v>1</v>
@@ -45678,10 +45708,10 @@
         <v>1255</v>
       </c>
       <c r="E1256" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F1256" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1256" t="n">
         <v>3</v>
@@ -45707,10 +45737,10 @@
         <v>1256</v>
       </c>
       <c r="E1257" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F1257" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G1257" t="n">
         <v>2</v>
@@ -45939,10 +45969,10 @@
         <v>1264</v>
       </c>
       <c r="E1265" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F1265" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G1265" t="n">
         <v>1</v>
@@ -46055,10 +46085,10 @@
         <v>1268</v>
       </c>
       <c r="E1269" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1269" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1269" t="n">
         <v>7</v>
@@ -46229,10 +46259,10 @@
         <v>1274</v>
       </c>
       <c r="E1275" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1275" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1275" t="n">
         <v>22</v>
@@ -48149,7 +48179,7 @@
         <v>2494</v>
       </c>
       <c r="G1341" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1341" t="s">
         <v>4</v>
@@ -48236,7 +48266,7 @@
         <v>2500</v>
       </c>
       <c r="G1344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1344" t="s">
         <v>4</v>
@@ -48323,7 +48353,7 @@
         <v>2506</v>
       </c>
       <c r="G1347" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1347" t="s">
         <v>4</v>
@@ -48352,7 +48382,7 @@
         <v>2508</v>
       </c>
       <c r="G1348" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1348" t="s">
         <v>4</v>
@@ -48381,7 +48411,7 @@
         <v>2510</v>
       </c>
       <c r="G1349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1349" t="s">
         <v>4</v>
@@ -48410,7 +48440,7 @@
         <v>2512</v>
       </c>
       <c r="G1350" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1350" t="s">
         <v>4</v>
@@ -48468,7 +48498,7 @@
         <v>2516</v>
       </c>
       <c r="G1352" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1352" t="s">
         <v>4</v>
@@ -48497,7 +48527,7 @@
         <v>2518</v>
       </c>
       <c r="G1353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1353" t="s">
         <v>4</v>
@@ -48526,7 +48556,7 @@
         <v>2520</v>
       </c>
       <c r="G1354" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1354" t="s">
         <v>4</v>
@@ -48555,7 +48585,7 @@
         <v>2522</v>
       </c>
       <c r="G1355" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1355" t="s">
         <v>4</v>
@@ -48584,7 +48614,7 @@
         <v>2524</v>
       </c>
       <c r="G1356" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1356" t="s">
         <v>4</v>
@@ -48613,7 +48643,7 @@
         <v>2526</v>
       </c>
       <c r="G1357" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1357" t="s">
         <v>4</v>
@@ -48671,7 +48701,7 @@
         <v>2530</v>
       </c>
       <c r="G1359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1359" t="s">
         <v>4</v>
@@ -48700,7 +48730,7 @@
         <v>2532</v>
       </c>
       <c r="G1360" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1360" t="s">
         <v>4</v>
@@ -48758,7 +48788,7 @@
         <v>2536</v>
       </c>
       <c r="G1362" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1362" t="s">
         <v>4</v>
@@ -48787,7 +48817,7 @@
         <v>2538</v>
       </c>
       <c r="G1363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1363" t="s">
         <v>4</v>
@@ -48816,7 +48846,7 @@
         <v>2540</v>
       </c>
       <c r="G1364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1364" t="s">
         <v>4</v>
@@ -48845,7 +48875,7 @@
         <v>2542</v>
       </c>
       <c r="G1365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1365" t="s">
         <v>4</v>
@@ -48874,7 +48904,7 @@
         <v>2544</v>
       </c>
       <c r="G1366" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1366" t="s">
         <v>4</v>
@@ -48932,7 +48962,7 @@
         <v>2548</v>
       </c>
       <c r="G1368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1368" t="s">
         <v>4</v>
@@ -48961,7 +48991,7 @@
         <v>2550</v>
       </c>
       <c r="G1369" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1369" t="s">
         <v>4</v>
@@ -48990,7 +49020,7 @@
         <v>2552</v>
       </c>
       <c r="G1370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1370" t="s">
         <v>4</v>
@@ -49019,7 +49049,7 @@
         <v>2554</v>
       </c>
       <c r="G1371" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1371" t="s">
         <v>4</v>
@@ -49048,7 +49078,7 @@
         <v>2556</v>
       </c>
       <c r="G1372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1372" t="s">
         <v>4</v>
@@ -49106,7 +49136,7 @@
         <v>2560</v>
       </c>
       <c r="G1374" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1374" t="s">
         <v>4</v>
@@ -49135,7 +49165,7 @@
         <v>2562</v>
       </c>
       <c r="G1375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1375" t="s">
         <v>4</v>
@@ -49164,7 +49194,7 @@
         <v>2564</v>
       </c>
       <c r="G1376" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1376" t="s">
         <v>4</v>
@@ -49222,7 +49252,7 @@
         <v>2568</v>
       </c>
       <c r="G1378" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1378" t="s">
         <v>4</v>
@@ -49251,7 +49281,7 @@
         <v>2570</v>
       </c>
       <c r="G1379" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1379" t="s">
         <v>4</v>
@@ -49367,7 +49397,7 @@
         <v>2578</v>
       </c>
       <c r="G1383" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1383" t="s">
         <v>4</v>
@@ -49396,7 +49426,7 @@
         <v>2580</v>
       </c>
       <c r="G1384" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1384" t="s">
         <v>4</v>
@@ -49570,7 +49600,7 @@
         <v>2592</v>
       </c>
       <c r="G1390" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1390" t="s">
         <v>4</v>
@@ -49744,7 +49774,7 @@
         <v>2604</v>
       </c>
       <c r="G1396" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1396" t="s">
         <v>4</v>
@@ -49802,7 +49832,7 @@
         <v>2608</v>
       </c>
       <c r="G1398" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1398" t="s">
         <v>4</v>
@@ -49883,13 +49913,13 @@
         <v>1400</v>
       </c>
       <c r="E1401" t="s">
-        <v>145</v>
+        <v>2613</v>
       </c>
       <c r="F1401" t="s">
-        <v>146</v>
+        <v>2614</v>
       </c>
       <c r="G1401" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H1401" t="s">
         <v>4</v>
@@ -49912,13 +49942,13 @@
         <v>1401</v>
       </c>
       <c r="E1402" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="F1402" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="G1402" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1402" t="s">
         <v>4</v>
@@ -49941,13 +49971,13 @@
         <v>1402</v>
       </c>
       <c r="E1403" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="F1403" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="G1403" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1403" t="s">
         <v>4</v>
@@ -49970,13 +50000,13 @@
         <v>1403</v>
       </c>
       <c r="E1404" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="F1404" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="G1404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1404" t="s">
         <v>4</v>
@@ -49999,13 +50029,13 @@
         <v>1404</v>
       </c>
       <c r="E1405" t="s">
-        <v>2497</v>
+        <v>2621</v>
       </c>
       <c r="F1405" t="s">
-        <v>2498</v>
+        <v>2622</v>
       </c>
       <c r="G1405" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1405" t="s">
         <v>4</v>
@@ -50028,13 +50058,13 @@
         <v>1405</v>
       </c>
       <c r="E1406" t="s">
-        <v>2619</v>
+        <v>2623</v>
       </c>
       <c r="F1406" t="s">
-        <v>2620</v>
+        <v>2624</v>
       </c>
       <c r="G1406" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1406" t="s">
         <v>4</v>
@@ -50057,13 +50087,13 @@
         <v>1406</v>
       </c>
       <c r="E1407" t="s">
-        <v>2621</v>
+        <v>147</v>
       </c>
       <c r="F1407" t="s">
-        <v>2622</v>
+        <v>148</v>
       </c>
       <c r="G1407" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H1407" t="s">
         <v>4</v>
@@ -50086,13 +50116,13 @@
         <v>1407</v>
       </c>
       <c r="E1408" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="F1408" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="G1408" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1408" t="s">
         <v>4</v>
@@ -50115,10 +50145,10 @@
         <v>1408</v>
       </c>
       <c r="E1409" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="F1409" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="G1409" t="n">
         <v>4</v>
@@ -50144,13 +50174,13 @@
         <v>1409</v>
       </c>
       <c r="E1410" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="F1410" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="G1410" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1410" t="s">
         <v>4</v>
@@ -50173,13 +50203,13 @@
         <v>1410</v>
       </c>
       <c r="E1411" t="s">
-        <v>2629</v>
+        <v>2497</v>
       </c>
       <c r="F1411" t="s">
-        <v>2630</v>
+        <v>2498</v>
       </c>
       <c r="G1411" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1411" t="s">
         <v>4</v>
@@ -50208,7 +50238,7 @@
         <v>2632</v>
       </c>
       <c r="G1412" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1412" t="s">
         <v>4</v>
@@ -50295,7 +50325,7 @@
         <v>2638</v>
       </c>
       <c r="G1415" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1415" t="s">
         <v>4</v>
@@ -50324,7 +50354,7 @@
         <v>2640</v>
       </c>
       <c r="G1416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1416" t="s">
         <v>4</v>
@@ -50411,7 +50441,7 @@
         <v>2646</v>
       </c>
       <c r="G1419" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1419" t="s">
         <v>4</v>
@@ -50492,13 +50522,13 @@
         <v>1421</v>
       </c>
       <c r="E1422" t="s">
-        <v>809</v>
+        <v>2651</v>
       </c>
       <c r="F1422" t="s">
-        <v>810</v>
+        <v>2652</v>
       </c>
       <c r="G1422" t="n">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="H1422" t="s">
         <v>4</v>
@@ -50521,10 +50551,10 @@
         <v>1422</v>
       </c>
       <c r="E1423" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="F1423" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="G1423" t="n">
         <v>1</v>
@@ -50550,13 +50580,13 @@
         <v>1423</v>
       </c>
       <c r="E1424" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="F1424" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="G1424" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1424" t="s">
         <v>4</v>
@@ -50579,13 +50609,13 @@
         <v>1424</v>
       </c>
       <c r="E1425" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="F1425" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="G1425" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1425" t="s">
         <v>4</v>
@@ -50608,10 +50638,10 @@
         <v>1425</v>
       </c>
       <c r="E1426" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="F1426" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="G1426" t="n">
         <v>1</v>
@@ -50637,10 +50667,10 @@
         <v>1426</v>
       </c>
       <c r="E1427" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="F1427" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="G1427" t="n">
         <v>1</v>
@@ -50666,13 +50696,13 @@
         <v>1427</v>
       </c>
       <c r="E1428" t="s">
-        <v>2661</v>
+        <v>809</v>
       </c>
       <c r="F1428" t="s">
-        <v>2662</v>
+        <v>810</v>
       </c>
       <c r="G1428" t="n">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="H1428" t="s">
         <v>4</v>
@@ -50730,7 +50760,7 @@
         <v>2666</v>
       </c>
       <c r="G1430" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1430" t="s">
         <v>4</v>
@@ -50991,7 +51021,7 @@
         <v>2684</v>
       </c>
       <c r="G1439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1439" t="s">
         <v>4</v>
@@ -51020,7 +51050,7 @@
         <v>2686</v>
       </c>
       <c r="G1440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1440" t="s">
         <v>4</v>
@@ -51049,7 +51079,7 @@
         <v>2688</v>
       </c>
       <c r="G1441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1441" t="s">
         <v>4</v>
@@ -51078,7 +51108,7 @@
         <v>2690</v>
       </c>
       <c r="G1442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1442" t="s">
         <v>4</v>
@@ -51107,7 +51137,7 @@
         <v>2692</v>
       </c>
       <c r="G1443" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1443" t="s">
         <v>4</v>
@@ -51136,7 +51166,7 @@
         <v>2694</v>
       </c>
       <c r="G1444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1444" t="s">
         <v>4</v>
@@ -51252,7 +51282,7 @@
         <v>2702</v>
       </c>
       <c r="G1448" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1448" t="s">
         <v>4</v>
@@ -51281,7 +51311,7 @@
         <v>2704</v>
       </c>
       <c r="G1449" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1449" t="s">
         <v>4</v>
@@ -51310,7 +51340,7 @@
         <v>2706</v>
       </c>
       <c r="G1450" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1450" t="s">
         <v>4</v>
@@ -51339,7 +51369,7 @@
         <v>2708</v>
       </c>
       <c r="G1451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1451" t="s">
         <v>4</v>
@@ -51397,7 +51427,7 @@
         <v>2712</v>
       </c>
       <c r="G1453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1453" t="s">
         <v>4</v>
@@ -51426,7 +51456,7 @@
         <v>2714</v>
       </c>
       <c r="G1454" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1454" t="s">
         <v>4</v>
@@ -51455,7 +51485,7 @@
         <v>2716</v>
       </c>
       <c r="G1455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1455" t="s">
         <v>4</v>
@@ -51484,7 +51514,7 @@
         <v>2718</v>
       </c>
       <c r="G1456" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1456" t="s">
         <v>4</v>
@@ -51542,7 +51572,7 @@
         <v>2722</v>
       </c>
       <c r="G1458" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1458" t="s">
         <v>4</v>
@@ -51571,7 +51601,7 @@
         <v>2724</v>
       </c>
       <c r="G1459" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1459" t="s">
         <v>4</v>
@@ -51600,7 +51630,7 @@
         <v>2726</v>
       </c>
       <c r="G1460" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H1460" t="s">
         <v>4</v>
@@ -51629,7 +51659,7 @@
         <v>2728</v>
       </c>
       <c r="G1461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1461" t="s">
         <v>4</v>
@@ -51658,7 +51688,7 @@
         <v>2730</v>
       </c>
       <c r="G1462" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1462" t="s">
         <v>4</v>
@@ -51681,10 +51711,10 @@
         <v>1462</v>
       </c>
       <c r="E1463" t="s">
-        <v>223</v>
+        <v>2731</v>
       </c>
       <c r="F1463" t="s">
-        <v>224</v>
+        <v>2732</v>
       </c>
       <c r="G1463" t="n">
         <v>1</v>
@@ -51710,13 +51740,13 @@
         <v>1463</v>
       </c>
       <c r="E1464" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="F1464" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="G1464" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1464" t="s">
         <v>4</v>
@@ -51739,13 +51769,13 @@
         <v>1464</v>
       </c>
       <c r="E1465" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="F1465" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="G1465" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1465" t="s">
         <v>4</v>
@@ -51768,13 +51798,13 @@
         <v>1465</v>
       </c>
       <c r="E1466" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="F1466" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="G1466" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1466" t="s">
         <v>4</v>
@@ -51797,13 +51827,13 @@
         <v>1466</v>
       </c>
       <c r="E1467" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="F1467" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="G1467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1467" t="s">
         <v>4</v>
@@ -51826,10 +51856,10 @@
         <v>1467</v>
       </c>
       <c r="E1468" t="s">
-        <v>2723</v>
+        <v>2741</v>
       </c>
       <c r="F1468" t="s">
-        <v>2724</v>
+        <v>2742</v>
       </c>
       <c r="G1468" t="n">
         <v>6</v>
@@ -51855,13 +51885,13 @@
         <v>1468</v>
       </c>
       <c r="E1469" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="F1469" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G1469" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H1469" t="s">
         <v>4</v>
@@ -51884,10 +51914,10 @@
         <v>1469</v>
       </c>
       <c r="E1470" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="F1470" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="G1470" t="n">
         <v>1</v>
@@ -51913,13 +51943,13 @@
         <v>1470</v>
       </c>
       <c r="E1471" t="s">
-        <v>2741</v>
+        <v>2745</v>
       </c>
       <c r="F1471" t="s">
-        <v>2742</v>
+        <v>2746</v>
       </c>
       <c r="G1471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1471" t="s">
         <v>4</v>
@@ -51942,10 +51972,10 @@
         <v>1471</v>
       </c>
       <c r="E1472" t="s">
-        <v>265</v>
+        <v>2747</v>
       </c>
       <c r="F1472" t="s">
-        <v>266</v>
+        <v>2748</v>
       </c>
       <c r="G1472" t="n">
         <v>1</v>
@@ -51971,13 +52001,13 @@
         <v>1472</v>
       </c>
       <c r="E1473" t="s">
-        <v>2743</v>
+        <v>2749</v>
       </c>
       <c r="F1473" t="s">
-        <v>2744</v>
+        <v>2750</v>
       </c>
       <c r="G1473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1473" t="s">
         <v>4</v>
@@ -52000,13 +52030,13 @@
         <v>1473</v>
       </c>
       <c r="E1474" t="s">
-        <v>2745</v>
+        <v>2735</v>
       </c>
       <c r="F1474" t="s">
-        <v>2746</v>
+        <v>2736</v>
       </c>
       <c r="G1474" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1474" t="s">
         <v>4</v>
@@ -52029,13 +52059,13 @@
         <v>1474</v>
       </c>
       <c r="E1475" t="s">
-        <v>2747</v>
+        <v>145</v>
       </c>
       <c r="F1475" t="s">
-        <v>2748</v>
+        <v>146</v>
       </c>
       <c r="G1475" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H1475" t="s">
         <v>4</v>
@@ -52058,10 +52088,10 @@
         <v>1475</v>
       </c>
       <c r="E1476" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="F1476" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="G1476" t="n">
         <v>1</v>
@@ -52087,10 +52117,10 @@
         <v>1476</v>
       </c>
       <c r="E1477" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="F1477" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="G1477" t="n">
         <v>1</v>
@@ -52116,10 +52146,10 @@
         <v>1477</v>
       </c>
       <c r="E1478" t="s">
-        <v>2753</v>
+        <v>265</v>
       </c>
       <c r="F1478" t="s">
-        <v>2754</v>
+        <v>266</v>
       </c>
       <c r="G1478" t="n">
         <v>1</v>
@@ -52151,7 +52181,7 @@
         <v>2756</v>
       </c>
       <c r="G1479" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1479" t="s">
         <v>4</v>
@@ -52551,13 +52581,13 @@
         <v>1492</v>
       </c>
       <c r="E1493" t="s">
-        <v>2723</v>
+        <v>2783</v>
       </c>
       <c r="F1493" t="s">
-        <v>2724</v>
+        <v>2784</v>
       </c>
       <c r="G1493" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1493" t="s">
         <v>4</v>
@@ -52580,10 +52610,10 @@
         <v>1493</v>
       </c>
       <c r="E1494" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="F1494" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="G1494" t="n">
         <v>1</v>
@@ -52609,10 +52639,10 @@
         <v>1494</v>
       </c>
       <c r="E1495" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="F1495" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="G1495" t="n">
         <v>1</v>
@@ -52638,10 +52668,10 @@
         <v>1495</v>
       </c>
       <c r="E1496" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="F1496" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="G1496" t="n">
         <v>1</v>
@@ -52667,10 +52697,10 @@
         <v>1496</v>
       </c>
       <c r="E1497" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="F1497" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="G1497" t="n">
         <v>1</v>
@@ -52696,10 +52726,10 @@
         <v>1497</v>
       </c>
       <c r="E1498" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="F1498" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="G1498" t="n">
         <v>1</v>
@@ -52725,13 +52755,13 @@
         <v>1498</v>
       </c>
       <c r="E1499" t="s">
-        <v>2793</v>
+        <v>2735</v>
       </c>
       <c r="F1499" t="s">
-        <v>2794</v>
+        <v>2736</v>
       </c>
       <c r="G1499" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1499" t="s">
         <v>4</v>
@@ -52928,10 +52958,10 @@
         <v>1505</v>
       </c>
       <c r="E1506" t="s">
-        <v>2551</v>
+        <v>2807</v>
       </c>
       <c r="F1506" t="s">
-        <v>2552</v>
+        <v>2808</v>
       </c>
       <c r="G1506" t="n">
         <v>1</v>
@@ -52957,10 +52987,10 @@
         <v>1506</v>
       </c>
       <c r="E1507" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="F1507" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="G1507" t="n">
         <v>1</v>
@@ -52986,10 +53016,10 @@
         <v>1507</v>
       </c>
       <c r="E1508" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="F1508" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="G1508" t="n">
         <v>1</v>
@@ -53015,10 +53045,10 @@
         <v>1508</v>
       </c>
       <c r="E1509" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="F1509" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="G1509" t="n">
         <v>1</v>
@@ -53044,10 +53074,10 @@
         <v>1509</v>
       </c>
       <c r="E1510" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="F1510" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="G1510" t="n">
         <v>1</v>
@@ -53073,10 +53103,10 @@
         <v>1510</v>
       </c>
       <c r="E1511" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="F1511" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="G1511" t="n">
         <v>1</v>
@@ -53102,10 +53132,10 @@
         <v>1511</v>
       </c>
       <c r="E1512" t="s">
-        <v>2817</v>
+        <v>2561</v>
       </c>
       <c r="F1512" t="s">
-        <v>2818</v>
+        <v>2562</v>
       </c>
       <c r="G1512" t="n">
         <v>1</v>
@@ -53137,7 +53167,7 @@
         <v>2820</v>
       </c>
       <c r="G1513" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1513" t="s">
         <v>4</v>
@@ -53311,7 +53341,7 @@
         <v>2832</v>
       </c>
       <c r="G1519" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1519" t="s">
         <v>4</v>
@@ -54529,7 +54559,7 @@
         <v>2916</v>
       </c>
       <c r="G1561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1561" t="s">
         <v>4</v>
@@ -54703,7 +54733,7 @@
         <v>2928</v>
       </c>
       <c r="G1567" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1567" t="s">
         <v>4</v>
@@ -55074,10 +55104,10 @@
         <v>1579</v>
       </c>
       <c r="E1580" t="s">
-        <v>2717</v>
+        <v>2953</v>
       </c>
       <c r="F1580" t="s">
-        <v>2718</v>
+        <v>2954</v>
       </c>
       <c r="G1580" t="n">
         <v>1</v>
@@ -55103,13 +55133,13 @@
         <v>1580</v>
       </c>
       <c r="E1581" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="F1581" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="G1581" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1581" t="s">
         <v>4</v>
@@ -55132,10 +55162,10 @@
         <v>1581</v>
       </c>
       <c r="E1582" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="F1582" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="G1582" t="n">
         <v>1</v>
@@ -55161,10 +55191,10 @@
         <v>1582</v>
       </c>
       <c r="E1583" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="F1583" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="G1583" t="n">
         <v>1</v>
@@ -55190,10 +55220,10 @@
         <v>1583</v>
       </c>
       <c r="E1584" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="F1584" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="G1584" t="n">
         <v>1</v>
@@ -55219,10 +55249,10 @@
         <v>1584</v>
       </c>
       <c r="E1585" t="s">
-        <v>2961</v>
+        <v>2729</v>
       </c>
       <c r="F1585" t="s">
-        <v>2962</v>
+        <v>2730</v>
       </c>
       <c r="G1585" t="n">
         <v>1</v>
@@ -55254,7 +55284,7 @@
         <v>2964</v>
       </c>
       <c r="G1586" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1586" t="s">
         <v>4</v>
@@ -55283,12 +55313,157 @@
         <v>2966</v>
       </c>
       <c r="G1587" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1587" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9">
+      <c r="A1588" s="1" t="n">
+        <v>1586</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>1587</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>2967</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>2968</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9">
+      <c r="A1589" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>2969</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9">
+      <c r="A1590" s="1" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>1589</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>2972</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9">
+      <c r="A1591" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9">
+      <c r="A1592" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>1591</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>2976</v>
+      </c>
+      <c r="G1592" t="n">
         <v>2</v>
       </c>
-      <c r="H1587" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1587" t="n">
+      <c r="H1592" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1592" t="n">
         <v>3</v>
       </c>
     </row>
